--- a/output/fit_clients/fit_round_11.xlsx
+++ b/output/fit_clients/fit_round_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>9255178839.254667</v>
+        <v>7148715087.757089</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1344339500737511</v>
+        <v>0.1747795253639091</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1420341314797822</v>
+        <v>0.2786820205467447</v>
       </c>
       <c r="I2" t="n">
-        <v>1.589292465088683</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.349314837876711</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7568578257788143</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.787841677699576</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>3875959766.655411</v>
+        <v>10480281764.15529</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3750713468459089</v>
+        <v>0.1502109795734948</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9687524552154376</v>
+        <v>0.2150189013868621</v>
       </c>
       <c r="I3" t="n">
-        <v>5.813343342347115</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4946317272003546</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.590813850621778</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8225530110384928</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8.860246370148076</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>9388106967.853636</v>
+        <v>13338029619.77748</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1581995321405625</v>
+        <v>0.09819253947809496</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2236816327926359</v>
+        <v>0.08022638340247526</v>
       </c>
       <c r="I4" t="n">
-        <v>5.939037252451917</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.225184304401137</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7700546041274066</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.175907778146996</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>5990898660.552478</v>
+        <v>6747358534.268925</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2422244378051583</v>
+        <v>0.1595541847275863</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5123521806578647</v>
+        <v>0.2392294341605287</v>
       </c>
       <c r="I5" t="n">
-        <v>5.802868849838381</v>
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01687229370702229</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.034630793713065</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6492277484819955</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.949924175926844</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>10895372969.59083</v>
+        <v>6537491978.772662</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1122729009290573</v>
+        <v>0.2059454090913874</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06589906001176933</v>
+        <v>0.3594404580379706</v>
       </c>
       <c r="I6" t="n">
-        <v>4.891588001578564</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.301292939709194</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7778358954607331</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.255424969505468</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>7772964513.942247</v>
+        <v>6626168480.647404</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.151307278952636</v>
+        <v>0.2419296588491474</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2000030521617154</v>
+        <v>0.4526844619668094</v>
       </c>
       <c r="I7" t="n">
-        <v>1.252280365966615</v>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4772818131828728</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.573463936604297</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8278175079138925</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.982886221673555</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>4463796236.933078</v>
+        <v>10249524351.02853</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3426956963992203</v>
+        <v>0.1175585674743128</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8575247581651727</v>
+        <v>0.1304085048228594</v>
       </c>
       <c r="I8" t="n">
-        <v>6.117103625100388</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.205517928248949</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7467470788779239</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.729423649309529</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>9220213700.1126</v>
+        <v>9806635871.871534</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1261368985391084</v>
+        <v>0.135955849428878</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1135293162321222</v>
+        <v>0.1780803679963162</v>
       </c>
       <c r="I9" t="n">
-        <v>4.650674673877692</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.510733149563094</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7750777608952016</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.990822068340939</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>6250503461.438444</v>
+        <v>15438096433.22364</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2317449592559137</v>
+        <v>0.08856801652420357</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4763495598845933</v>
+        <v>0.0552868873127362</v>
       </c>
       <c r="I10" t="n">
-        <v>5.792394357329647</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.184472090992918</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7822020195699807</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.459568300406696</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>4240054817.64802</v>
+        <v>7295212998.916882</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2539045687614903</v>
+        <v>0.2078934241159474</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5524796854212847</v>
+        <v>0.3644882420497614</v>
       </c>
       <c r="I11" t="n">
-        <v>1.280638185919021</v>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1639099209783007</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7.260092044399725</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8117815690193426</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.975539335987127</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>10432196025.22811</v>
+        <v>11723161401.25239</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1215261635166866</v>
+        <v>0.1085904643319167</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09768897229532804</v>
+        <v>0.1071699532267271</v>
       </c>
       <c r="I12" t="n">
-        <v>5.069654374227033</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.256945926876876</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7620853910418073</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.98476189395927</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>5891078606.899923</v>
+        <v>12287805603.40804</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2103131790753658</v>
+        <v>0.1166039223148687</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4027199178455815</v>
+        <v>0.127934785415144</v>
       </c>
       <c r="I13" t="n">
-        <v>1.6122648403918</v>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1720753763549043</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7.268257499776328</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7954920924845699</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.641584349915068</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>10374540087.91556</v>
+        <v>12969250407.78828</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.133563251793112</v>
+        <v>0.1242110992808504</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1390428166105849</v>
+        <v>0.1476468439873921</v>
       </c>
       <c r="I14" t="n">
-        <v>5.541006537120043</v>
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9524217471705725</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.4522471065917736</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.625756228329595</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.91328561311447</v>
+      </c>
+      <c r="N14" t="n">
+        <v>14.6399560339598</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>9366159229.729168</v>
+        <v>5674383646.407165</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1568922494223378</v>
+        <v>0.1731062457544516</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2191904165812064</v>
+        <v>0.274346143280201</v>
       </c>
       <c r="I15" t="n">
-        <v>5.876190297399516</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.123602609920227</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6172833423728042</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.222064237535858</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>4757371334.071897</v>
+        <v>7193842243.729581</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3287058588007137</v>
+        <v>0.1853348273187568</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8094621741948098</v>
+        <v>0.3060333929825602</v>
       </c>
       <c r="I16" t="n">
-        <v>6.253272027713924</v>
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5258316820720482</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.54359018207809</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.7214604924979698</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.885619667881308</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>7803058643.555113</v>
+        <v>5338346113.397902</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1487096051698159</v>
+        <v>0.2688895941755151</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1910786516148693</v>
+        <v>0.5225442570831702</v>
       </c>
       <c r="I17" t="n">
-        <v>1.229673138554276</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7.506218841822825</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.796013012570482</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8.414041409586813</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>11827830299.59047</v>
+        <v>6213707527.204517</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1032003088548086</v>
+        <v>0.1766295573447701</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03472984769410985</v>
+        <v>0.2834759064955459</v>
       </c>
       <c r="I18" t="n">
-        <v>4.88111350906983</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7.256980113171232</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7209511163476893</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7.162042213782553</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>7249354084.725362</v>
+        <v>11913969376.55848</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1813863365800562</v>
+        <v>0.1099293575973858</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3033407230094172</v>
+        <v>0.1106393535823305</v>
       </c>
       <c r="I19" t="n">
-        <v>5.258195239384237</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7.597419758341098</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7700546041274066</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7.803672324207034</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>9585367125.566782</v>
+        <v>11476708789.74704</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.159862750161423</v>
+        <v>0.1289529408746652</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2293956773786262</v>
+        <v>0.1599341168687239</v>
       </c>
       <c r="I20" t="n">
-        <v>6.12757811760912</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7.842074488978684</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.80474948259305</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.252915162882315</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>10894726591.68097</v>
+        <v>13198469655.86277</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1298307569352008</v>
+        <v>0.0748200401825637</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.126219697952906</v>
+        <v>0.01966251363138674</v>
       </c>
       <c r="I21" t="n">
-        <v>5.656225954716112</v>
+        <v>6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.9592786538247686</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1431805360340226</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.040184756741044</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.6090587220651786</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9.140989684562527</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>9524020992.514544</v>
+        <v>10317604996.73352</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.150716354061817</v>
+        <v>0.1533409701670964</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1979729087104293</v>
+        <v>0.2231294735725189</v>
       </c>
       <c r="I22" t="n">
-        <v>5.74002189478598</v>
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9565135230516254</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3195962547701887</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.867687316480901</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.940014859257669</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14.93260986867248</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>4987891396.111209</v>
+        <v>7263640429.392546</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2510215881957996</v>
+        <v>0.1940117815162628</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5425751032881635</v>
+        <v>0.3285175063579718</v>
       </c>
       <c r="I23" t="n">
-        <v>5.006807419174632</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>7.568087473589519</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7907675793254355</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8.24726411291919</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>11032989999.59001</v>
+        <v>7435196322.901163</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1246425266451888</v>
+        <v>0.2004564298335088</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1083953485124307</v>
+        <v>0.3452171684895599</v>
       </c>
       <c r="I24" t="n">
-        <v>5.499108567085108</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2958346413341096</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7.392016764755533</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8067732681186895</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.743448597618256</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>9895086980.539215</v>
+        <v>5004162103.232938</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1336816899741812</v>
+        <v>0.25805704199025</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.139449715188417</v>
+        <v>0.4944744613997298</v>
       </c>
       <c r="I25" t="n">
-        <v>1.491608215236869</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7.429013749025318</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7660941763246877</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.892869777468436</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>11761625214.86378</v>
+        <v>7801098283.072244</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09309130328488199</v>
+        <v>0.1984412237645005</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.3399952760260243</v>
       </c>
       <c r="I26" t="n">
-        <v>4.37833786865062</v>
+        <v>3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9482467140783013</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.4247356497487489</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.521718308924719</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.9588455636105694</v>
+      </c>
+      <c r="N26" t="n">
+        <v>14.65519296328667</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>5350555081.689767</v>
+        <v>6622742840.200933</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2736611412544465</v>
+        <v>0.2321669385479793</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6203540919483939</v>
+        <v>0.4273868627047333</v>
       </c>
       <c r="I27" t="n">
-        <v>5.855241312382049</v>
+        <v>3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.4022084173192064</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.499191076495176</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.7140231375598318</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9.781271674701461</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>4277242566.056432</v>
+        <v>4750192849.065968</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2694566843476031</v>
+        <v>0.3187254640193608</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6059095309081352</v>
+        <v>0.6516812010183302</v>
       </c>
       <c r="I28" t="n">
-        <v>4.608776703842757</v>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1420629781834575</v>
+      </c>
+      <c r="L28" t="n">
+        <v>7.238245101604881</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8112839781689269</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8.987434461773656</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>9143028278.126589</v>
+        <v>4409670134.546757</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1492615081662668</v>
+        <v>0.367098438343027</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1929747339620473</v>
+        <v>0.7770274243868711</v>
       </c>
       <c r="I29" t="n">
-        <v>5.457210597050175</v>
+        <v>4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9578155714851606</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3165248017340215</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.864615863444734</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.9499186178189346</v>
+      </c>
+      <c r="N29" t="n">
+        <v>15.13375649293396</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>7297375345.517818</v>
+        <v>6321969781.390409</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2110623679164345</v>
+        <v>0.1976360332625958</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4052937827192786</v>
+        <v>0.3379088302385341</v>
       </c>
       <c r="I30" t="n">
-        <v>1.691019692915791</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>7.185098972553552</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7568578257788143</v>
+      </c>
+      <c r="N30" t="n">
+        <v>7.952057543022734</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>7457937143.220934</v>
+        <v>3934477698.874519</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1973866434819844</v>
+        <v>0.2496573434082457</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3583103456809196</v>
+        <v>0.4727087852260152</v>
       </c>
       <c r="I31" t="n">
-        <v>5.88666478990825</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.814091759789049</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.3018626990478513</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.223162221167978</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>8543827622.095534</v>
+        <v>11505994391.91273</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1373490631956571</v>
+        <v>0.09037878818461079</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.152049106151087</v>
+        <v>0.0599790401561015</v>
       </c>
       <c r="I32" t="n">
-        <v>4.692572643912626</v>
+        <v>6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.9568241549649134</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1852340405013704</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.082238261208393</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.6422973176873887</v>
+      </c>
+      <c r="N32" t="n">
+        <v>9.763708092539382</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>5967200733.425612</v>
+        <v>3538024870.708207</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1839261756106435</v>
+        <v>0.3842435990925852</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3120664302107529</v>
+        <v>0.8214547348644956</v>
       </c>
       <c r="I33" t="n">
-        <v>4.388812361159353</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>7.29427505590978</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.780571396735857</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8.317152878807359</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>10483492705.76053</v>
+        <v>6187208879.780237</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1341740266797807</v>
+        <v>0.1795028067711605</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1411411554276586</v>
+        <v>0.2909211994391649</v>
       </c>
       <c r="I34" t="n">
-        <v>5.624802477189911</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9457870313409016</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.2198051211365</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.67646013092927</v>
+      </c>
+      <c r="N34" t="n">
+        <v>10.3093974974489</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>5711135163.074617</v>
+        <v>6992175503.865679</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173982622627309</v>
+        <v>0.2288911783056904</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.427060972788642</v>
+        <v>0.4188985656592724</v>
       </c>
       <c r="I35" t="n">
-        <v>1.41916625297919</v>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4403274450095466</v>
+      </c>
+      <c r="L35" t="n">
+        <v>7.53650956843097</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8273421397238016</v>
+      </c>
+      <c r="N35" t="n">
+        <v>9.010333226045061</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>9413045308.553379</v>
+        <v>12752727214.1959</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1641806715405588</v>
+        <v>0.09509946771620566</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2442300496435545</v>
+        <v>0.07221147695147745</v>
       </c>
       <c r="I36" t="n">
-        <v>6.179950580152789</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>7.240925093500717</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7485545730549319</v>
+      </c>
+      <c r="N36" t="n">
+        <v>7.730166367597921</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>6345232015.466006</v>
+        <v>9051043430.534201</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1894808585516633</v>
+        <v>0.1093939530396841</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3311497407496836</v>
+        <v>0.1092519892488256</v>
       </c>
       <c r="I37" t="n">
-        <v>4.807792061508695</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.9411001073196468</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.158965829283134</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.597301571914401</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8.787065609004888</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>5477646223.2206</v>
+        <v>5406573977.388718</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1955822750031687</v>
+        <v>0.2330360400633088</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.352111373683145</v>
+        <v>0.4296389175802824</v>
       </c>
       <c r="I38" t="n">
-        <v>4.284067436072018</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>7.281445372691952</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7591915606833328</v>
+      </c>
+      <c r="N38" t="n">
+        <v>7.902385840974706</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>10966164251.94703</v>
+        <v>10518507709.01097</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1062931872275252</v>
+        <v>0.1426923392102669</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04535554119856345</v>
+        <v>0.1955362628356119</v>
       </c>
       <c r="I39" t="n">
-        <v>1.292697723475818</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>7.975787704110038</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8087852769629077</v>
+      </c>
+      <c r="N39" t="n">
+        <v>8.199917835148115</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>4548237701.970441</v>
+        <v>10368155170.7163</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3063858072757026</v>
+        <v>0.1341507787160084</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7327808444016608</v>
+        <v>0.1734029877042247</v>
       </c>
       <c r="I40" t="n">
-        <v>5.572430014646243</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>7.497140000430614</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7870468950750056</v>
+      </c>
+      <c r="N40" t="n">
+        <v>8.243797901069497</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>4002707347.766093</v>
+        <v>11621177060.21169</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.320003837081634</v>
+        <v>0.1009783014164508</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.7795660694945065</v>
+        <v>0.08744497483826985</v>
       </c>
       <c r="I41" t="n">
-        <v>5.122026836770701</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>7.346770241245042</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7394129940001832</v>
+      </c>
+      <c r="N41" t="n">
+        <v>7.441489638758623</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>9811196214.904623</v>
+        <v>9085525503.818882</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1241455499737797</v>
+        <v>0.1245471689584019</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1066879675058447</v>
+        <v>0.1485176828278549</v>
       </c>
       <c r="I42" t="n">
-        <v>1.441390168817223</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>7.298152317722167</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7293621252974086</v>
+      </c>
+      <c r="N42" t="n">
+        <v>7.289090188226005</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>3980304536.189849</v>
+        <v>3623510204.212255</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3204887762736643</v>
+        <v>0.2732514507200767</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7812320953131312</v>
+        <v>0.5338468956407636</v>
       </c>
       <c r="I43" t="n">
-        <v>5.101077851753234</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.224598518866696</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.5190986856745139</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6.157375194623583</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>4783331225.386638</v>
+        <v>8516796167.775846</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3148745464262215</v>
+        <v>0.1811503621323494</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.7619442092621563</v>
+        <v>0.2951904188783878</v>
       </c>
       <c r="I44" t="n">
-        <v>6.022833192521786</v>
+        <v>3</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9546701905680692</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1881818156397832</v>
+      </c>
+      <c r="L44" t="n">
+        <v>4.285164474815753</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.9601160067219274</v>
+      </c>
+      <c r="N44" t="n">
+        <v>14.91715565962279</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>8628784546.648134</v>
+        <v>14649138564.23243</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.181531386202993</v>
+        <v>0.06723198334711125</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3038390461409888</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>6.263746520222657</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.782187265264809</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.3067696697839282</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.353206130413755</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>9479962153.087069</v>
+        <v>11865623400.40445</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1132863067022137</v>
+        <v>0.131128184967253</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.06938065154029306</v>
+        <v>0.1655707070458388</v>
       </c>
       <c r="I46" t="n">
-        <v>4.294541928580752</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5126239661604088</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7.608806089581833</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8191615059925302</v>
+      </c>
+      <c r="N46" t="n">
+        <v>8.774424030268772</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>8281398326.485101</v>
+        <v>11927102520.14151</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.150241565608653</v>
+        <v>0.09201936582221801</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1963417561157207</v>
+        <v>0.06423017860462853</v>
       </c>
       <c r="I47" t="n">
-        <v>4.975383941648431</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>7.344486544993084</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7209511163476893</v>
+      </c>
+      <c r="N47" t="n">
+        <v>7.074535781960701</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>7142312715.268511</v>
+        <v>12266069664.44599</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2145443935441564</v>
+        <v>0.1244982632396433</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4172564054403035</v>
+        <v>0.1483909561331825</v>
       </c>
       <c r="I48" t="n">
-        <v>6.12757811760912</v>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2364238167667653</v>
+      </c>
+      <c r="L48" t="n">
+        <v>7.33260594018819</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.813764850352747</v>
+      </c>
+      <c r="N48" t="n">
+        <v>8.942691066866752</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>8575240595.120792</v>
+        <v>10821586577.92996</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1344022464694199</v>
+        <v>0.1043245444528852</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1419252126210319</v>
+        <v>0.09611591006511463</v>
       </c>
       <c r="I49" t="n">
-        <v>4.608776703842757</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7.435393532184561</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7287231319187889</v>
+      </c>
+      <c r="N49" t="n">
+        <v>7.139069106191217</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>5728637679.429802</v>
+        <v>6593402385.818452</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2418825185917363</v>
+        <v>0.2069799642344439</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.511177505055631</v>
+        <v>0.3621212437837663</v>
       </c>
       <c r="I50" t="n">
-        <v>5.541006537120043</v>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.06182389313638753</v>
+      </c>
+      <c r="L50" t="n">
+        <v>7.158006016557811</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.7816593602616132</v>
+      </c>
+      <c r="N50" t="n">
+        <v>8.475181188674453</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>10414888173.76178</v>
+        <v>14219333229.91428</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1199675895846617</v>
+        <v>0.09468562542493536</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.09233443619335313</v>
+        <v>0.07113911022178605</v>
       </c>
       <c r="I51" t="n">
-        <v>4.996332926665898</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>7.203194354351719</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7778358954607331</v>
+      </c>
+      <c r="N51" t="n">
+        <v>8.353523554862942</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>10228290583.99572</v>
+        <v>4948899387.066306</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1370095656250459</v>
+        <v>0.2265349994647162</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1508827501887436</v>
+        <v>0.4127931292368423</v>
       </c>
       <c r="I52" t="n">
-        <v>5.603853492172444</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5.550881788307572</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6631156336038889</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.711430883770206</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>7547697127.07165</v>
+        <v>13399058546.53576</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1579054418764684</v>
+        <v>0.1032190370089528</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2226712752446399</v>
+        <v>0.09325126953101073</v>
       </c>
       <c r="I53" t="n">
-        <v>4.76589409147376</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.07673591479621576</v>
+      </c>
+      <c r="L53" t="n">
+        <v>7.17291803821764</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.7854396774316158</v>
+      </c>
+      <c r="N53" t="n">
+        <v>8.535875510414677</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>5551793472.708709</v>
+        <v>8056964283.750609</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2609107628229673</v>
+        <v>0.1976661511596811</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5765497139703183</v>
+        <v>0.3379868730859761</v>
       </c>
       <c r="I54" t="n">
-        <v>5.792394357329647</v>
+        <v>4</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2437878532262101</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.791878914936922</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.6643522089055345</v>
+      </c>
+      <c r="N54" t="n">
+        <v>9.495165263173767</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>6710685475.493745</v>
+        <v>14316961943.9636</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2213177976264378</v>
+        <v>0.09239334121145183</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4405266757474154</v>
+        <v>0.06519924042744694</v>
       </c>
       <c r="I55" t="n">
-        <v>5.939037252451917</v>
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3164783162604135</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.413460975436383</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.6532003813378284</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.650546651320186</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>7721782541.682921</v>
+        <v>8958697884.12977</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1987834456246502</v>
+        <v>0.1397600897132634</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3631091090546289</v>
+        <v>0.1879380862594846</v>
       </c>
       <c r="I56" t="n">
-        <v>6.138052610117854</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7.366794457554153</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7574428334820581</v>
+      </c>
+      <c r="N56" t="n">
+        <v>7.782062212087009</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>3864483861.777929</v>
+        <v>13495670155.99909</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2826472225187333</v>
+        <v>0.07297826848281387</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.6512260933056787</v>
+        <v>0.0148900320939479</v>
       </c>
       <c r="I57" t="n">
-        <v>4.367863376141886</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.261505209501586</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6182238250193995</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.102971290886405</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>11587047351.85569</v>
+        <v>5220272155.091947</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0983369287618832</v>
+        <v>0.3100955222077857</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01802153264397865</v>
+        <v>0.6293189082485434</v>
       </c>
       <c r="I58" t="n">
-        <v>4.55640424129909</v>
+        <v>4</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.9604245392719607</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.3663867203327446</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.914477782043456</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.9510283384478111</v>
+      </c>
+      <c r="N58" t="n">
+        <v>15.10608898691277</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>7300743518.42258</v>
+        <v>3485607545.786248</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1865676826699831</v>
+        <v>0.4531468759038718</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.3211414215359825</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>5.446736104541441</v>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4090073128680325</v>
+      </c>
+      <c r="L59" t="n">
+        <v>7.505189436289457</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8235160436910378</v>
+      </c>
+      <c r="N59" t="n">
+        <v>8.965131437531301</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>4665492233.87407</v>
+        <v>6080258140.58535</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3290033426388148</v>
+        <v>0.167151343989181</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8104841904868418</v>
+        <v>0.258915534407301</v>
       </c>
       <c r="I60" t="n">
-        <v>6.138052610117854</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>7.137575875216259</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6999126950835866</v>
+      </c>
+      <c r="N60" t="n">
+        <v>6.860678026455473</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>9959369004.022032</v>
+        <v>5716635764.91344</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1062550809767806</v>
+        <v>0.1754924419284199</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.04522462582064639</v>
+        <v>0.2805293619638835</v>
       </c>
       <c r="I61" t="n">
-        <v>4.23169497352835</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>7.175923455623527</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6963780312636382</v>
+      </c>
+      <c r="N61" t="n">
+        <v>6.751637169649237</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>8200196997.866013</v>
+        <v>9221819692.297682</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1836723252370589</v>
+        <v>0.1653128157855105</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.3111943182358704</v>
+        <v>0.2541514575625596</v>
       </c>
       <c r="I62" t="n">
-        <v>6.022833192521786</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>7.808910898298277</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8132700874367684</v>
+      </c>
+      <c r="N62" t="n">
+        <v>8.456490850437092</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>10265681285.58</v>
+        <v>4435594509.085723</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1431446924096647</v>
+        <v>0.3519610362944989</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1719601961689629</v>
+        <v>0.737802708418436</v>
       </c>
       <c r="I63" t="n">
-        <v>5.876190297399516</v>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.3649754357957464</v>
+      </c>
+      <c r="L63" t="n">
+        <v>7.46115755921717</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8201338493282304</v>
+      </c>
+      <c r="N63" t="n">
+        <v>8.941519427347437</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>9954780196.63578</v>
+        <v>15332113364.93571</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.137353266771484</v>
+        <v>0.08132144671271987</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1520635476851458</v>
+        <v>0.03650925019312734</v>
       </c>
       <c r="I64" t="n">
-        <v>5.467685089558908</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>7.480943068958016</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7562717610878692</v>
+      </c>
+      <c r="N64" t="n">
+        <v>7.644492152799367</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>9254886824.428261</v>
+        <v>13499557149.76671</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1304758029901244</v>
+        <v>0.07431550226944569</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1284357765857866</v>
+        <v>0.01835513233346546</v>
       </c>
       <c r="I65" t="n">
-        <v>4.828741046526162</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.148506496574627</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.5260468613374257</v>
+      </c>
+      <c r="N65" t="n">
+        <v>6.372430730173888</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>6795708820.245262</v>
+        <v>10283023021.34627</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1811603958563322</v>
+        <v>0.1184492485790949</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.3025644956279449</v>
+        <v>0.1327164776996799</v>
       </c>
       <c r="I66" t="n">
-        <v>4.923011479104764</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>7.65670605957378</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7497539347016254</v>
+      </c>
+      <c r="N66" t="n">
+        <v>7.338372634458729</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>5467665748.687576</v>
+        <v>5956687248.9823</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2198927413016409</v>
+        <v>0.1692996640326041</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4356308441274431</v>
+        <v>0.2644823577791331</v>
       </c>
       <c r="I67" t="n">
-        <v>4.807792061508695</v>
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.9524036016964738</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1732107611912892</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.070214981898311</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.6186553138105829</v>
+      </c>
+      <c r="N67" t="n">
+        <v>9.302891294313348</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>7704374927.522943</v>
+        <v>10823994258.03832</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1516343572307957</v>
+        <v>0.124145212752869</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.201126741203725</v>
+        <v>0.1474761158572986</v>
       </c>
       <c r="I68" t="n">
-        <v>4.671623658895159</v>
+        <v>7</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.9504051811704387</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3757059437040607</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3.057810680360538</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.734289168771313</v>
+      </c>
+      <c r="N68" t="n">
+        <v>11.62797269506572</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>9191925318.443514</v>
+        <v>12897158772.68964</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1550217294673679</v>
+        <v>0.09545616377205046</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2127641788374904</v>
+        <v>0.07313576378964952</v>
       </c>
       <c r="I69" t="n">
-        <v>5.698123924751045</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>7.1773237655566</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.752732913503238</v>
+      </c>
+      <c r="N69" t="n">
+        <v>7.87733450450816</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>5544143779.24901</v>
+        <v>8857180482.11478</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2395375702503679</v>
+        <v>0.119181738718274</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5031213517393687</v>
+        <v>0.1346145390424962</v>
       </c>
       <c r="I70" t="n">
-        <v>1.786882593039983</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>7.162077341764047</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7102742133486254</v>
+      </c>
+      <c r="N70" t="n">
+        <v>7.043406925208461</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>5218409172.921824</v>
+        <v>4385358293.917237</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2093139103901317</v>
+        <v>0.3422549240918024</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.399286894784746</v>
+        <v>0.712651794603238</v>
       </c>
       <c r="I71" t="n">
-        <v>4.367863376141886</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>7.974289107792123</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.8087852769629077</v>
+      </c>
+      <c r="N71" t="n">
+        <v>8.201416431466031</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>10774738417.03702</v>
+        <v>8307416784.440191</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1135299143843519</v>
+        <v>0.1677435376313438</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.07021757438490435</v>
+        <v>0.2604500531667076</v>
       </c>
       <c r="I72" t="n">
-        <v>1.220533882653386</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>7.414932733884447</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7875809361952506</v>
+      </c>
+      <c r="N72" t="n">
+        <v>8.336685990020564</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>9212407105.378326</v>
+        <v>8409397331.645382</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.144725422438357</v>
+        <v>0.1778571794166083</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1773908503279941</v>
+        <v>0.2866569759373209</v>
       </c>
       <c r="I73" t="n">
-        <v>5.331516686945371</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.3511960648522946</v>
+      </c>
+      <c r="L73" t="n">
+        <v>7.447378188273719</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8077807342230455</v>
+      </c>
+      <c r="N73" t="n">
+        <v>8.708236496187192</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>7931893371.092852</v>
+        <v>11649655404.74991</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1495965231106622</v>
+        <v>0.0872406337088404</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1941256897028094</v>
+        <v>0.05184731335235079</v>
       </c>
       <c r="I74" t="n">
-        <v>4.744945106456294</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.266218696882589</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.5327872601180944</v>
+      </c>
+      <c r="N74" t="n">
+        <v>6.389526505479299</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>4167208249.243716</v>
+        <v>14641018717.93287</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3570288382564071</v>
+        <v>0.0708474225724131</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9067667761099489</v>
+        <v>0.00936848848031975</v>
       </c>
       <c r="I75" t="n">
-        <v>5.949511744960651</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>7.268875803333105</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7054830073889712</v>
+      </c>
+      <c r="N75" t="n">
+        <v>6.840784344446319</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>10796811464.53132</v>
+        <v>7925510094.528789</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1077178353832156</v>
+        <v>0.1992921781893092</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.05024997053907301</v>
+        <v>0.3422003073456785</v>
       </c>
       <c r="I76" t="n">
-        <v>1.631042716894831</v>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.3689307977591891</v>
+      </c>
+      <c r="L76" t="n">
+        <v>7.465112921180613</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8235160436910378</v>
+      </c>
+      <c r="N76" t="n">
+        <v>9.005207952640145</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>7489034018.82287</v>
+        <v>5337876011.096181</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1818769679209032</v>
+        <v>0.2252394037442426</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3050263044074791</v>
+        <v>0.4094359234242083</v>
       </c>
       <c r="I77" t="n">
-        <v>1.905175971606421</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>7.233621303922234</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7461423063738043</v>
+      </c>
+      <c r="N77" t="n">
+        <v>7.689224823553852</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>5921968584.137713</v>
+        <v>9567480458.452017</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2114277376198394</v>
+        <v>0.1253914889306295</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.406549023312779</v>
+        <v>0.1507055226560455</v>
       </c>
       <c r="I78" t="n">
-        <v>1.321312626490026</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7.159469376318319</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7455363879302255</v>
+      </c>
+      <c r="N78" t="n">
+        <v>7.751258382286189</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>8798438396.766781</v>
+        <v>10346305422.92664</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.126527083534402</v>
+        <v>0.1349404268412829</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1148698106423129</v>
+        <v>0.1754491593874238</v>
       </c>
       <c r="I79" t="n">
-        <v>4.451659316211755</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>7.46135544935778</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7881141336998287</v>
+      </c>
+      <c r="N79" t="n">
+        <v>8.300927224638794</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>7323761764.526654</v>
+        <v>8410368339.74177</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1652372399470335</v>
+        <v>0.1750336157150043</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2478599279319232</v>
+        <v>0.2793404308750215</v>
       </c>
       <c r="I80" t="n">
-        <v>4.839215539034895</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>7.61813801003837</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.8032238135920881</v>
+      </c>
+      <c r="N80" t="n">
+        <v>8.446338261803392</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>7338239682.641698</v>
+        <v>5900151578.592472</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1513471088477975</v>
+        <v>0.1718098114085786</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2001398891812485</v>
+        <v>0.2709867643837716</v>
       </c>
       <c r="I81" t="n">
-        <v>4.441184823703021</v>
+        <v>6</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.9575738795216525</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.1958451412623186</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.09284936196934</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.6258779626234237</v>
+      </c>
+      <c r="N81" t="n">
+        <v>9.424709890499132</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>4171474706.460364</v>
+        <v>5734150763.07923</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2750329081998717</v>
+        <v>0.2265753890472043</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.6250668460127659</v>
+        <v>0.4128977885367737</v>
       </c>
       <c r="I82" t="n">
-        <v>1.41921629354708</v>
+        <v>7</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.9517933663269323</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2667618713439051</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.948866608000382</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.7142164208384221</v>
+      </c>
+      <c r="N82" t="n">
+        <v>11.33546180876806</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>7652328985.567657</v>
+        <v>12167412238.16982</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.149584973693481</v>
+        <v>0.1222785495286047</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1940860112698632</v>
+        <v>0.142639134283726</v>
       </c>
       <c r="I83" t="n">
-        <v>4.577353226316557</v>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4348619127317448</v>
+      </c>
+      <c r="L83" t="n">
+        <v>7.531044036153169</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8062684323304721</v>
+      </c>
+      <c r="N83" t="n">
+        <v>8.594324610456272</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>6143955982.136016</v>
+        <v>12852055334.90197</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2242527687382605</v>
+        <v>0.1233056432379644</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.4506098732484091</v>
+        <v>0.1453005856274537</v>
       </c>
       <c r="I84" t="n">
-        <v>5.509583059593842</v>
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9555494709778203</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.2841062608104324</v>
+      </c>
+      <c r="L84" t="n">
+        <v>5.301864760816475</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.9988735916464221</v>
+      </c>
+      <c r="N84" t="n">
+        <v>14.67560707211197</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>4291920075.272008</v>
+        <v>7256647173.269322</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.29477840868689</v>
+        <v>0.1732628264787949</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.6929032142702124</v>
+        <v>0.2747518822847412</v>
       </c>
       <c r="I85" t="n">
-        <v>5.0591798817183</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>7.186378114933274</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7586096963643797</v>
+      </c>
+      <c r="N85" t="n">
+        <v>7.98581581235432</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>9963491127.19482</v>
+        <v>6472264868.949308</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1351299903630329</v>
+        <v>0.2383741613236013</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1444254026160485</v>
+        <v>0.4434712971107184</v>
       </c>
       <c r="I86" t="n">
-        <v>5.38388914948904</v>
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.2591852001149781</v>
+      </c>
+      <c r="L86" t="n">
+        <v>7.355367323536402</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8167187927001959</v>
+      </c>
+      <c r="N86" t="n">
+        <v>8.979008530467514</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>6381903928.07426</v>
+        <v>7129975132.976598</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1703326879018087</v>
+        <v>0.218222031771721</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.2653655203641859</v>
+        <v>0.3912521940375808</v>
       </c>
       <c r="I87" t="n">
-        <v>4.346914391124419</v>
+        <v>3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.9554020570044398</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.3147775909248862</v>
+      </c>
+      <c r="L87" t="n">
+        <v>4.411760250100856</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.963602321707057</v>
+      </c>
+      <c r="N87" t="n">
+        <v>14.86028618404028</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>5290625785.640514</v>
+        <v>5453667985.308887</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2222999995940204</v>
+        <v>0.2122920542869142</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.4439010654935718</v>
+        <v>0.3758861700795013</v>
       </c>
       <c r="I88" t="n">
-        <v>4.703047136421359</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>7.344199751928583</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7356814080177627</v>
+      </c>
+      <c r="N88" t="n">
+        <v>7.369428408426671</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>5149830105.207563</v>
+        <v>8007088368.08807</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2588958242820056</v>
+        <v>0.1890833909157311</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5696273210448686</v>
+        <v>0.3157468393130175</v>
       </c>
       <c r="I89" t="n">
-        <v>1.736719106581587</v>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.1749945301878775</v>
+      </c>
+      <c r="L89" t="n">
+        <v>7.271176653609301</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.8112839781689269</v>
+      </c>
+      <c r="N89" t="n">
+        <v>8.954502909769236</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>5317610689.248751</v>
+        <v>10382846960.00363</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2246200238793234</v>
+        <v>0.1087329028684446</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4518715913299521</v>
+        <v>0.1075390463591125</v>
       </c>
       <c r="I90" t="n">
-        <v>4.776368583982494</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>7.61184296879023</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7287231319187889</v>
+      </c>
+      <c r="N90" t="n">
+        <v>6.962619669585547</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>10778937055.22239</v>
+        <v>14567999003.18073</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1168878325891666</v>
+        <v>0.0816311876284693</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.08175382164639847</v>
+        <v>0.03731186476365436</v>
       </c>
       <c r="I91" t="n">
-        <v>5.038230896700832</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>7.133969850277792</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7431011484238503</v>
+      </c>
+      <c r="N91" t="n">
+        <v>7.728053118199215</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>10367253998.17021</v>
+        <v>14695092285.7198</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.138710319073287</v>
+        <v>0.06755648693439784</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0.156725749068709</v>
+        <v>0.0008408682679662489</v>
       </c>
       <c r="I92" t="n">
-        <v>5.750496387294714</v>
+        <v>5</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.9623216527271208</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.1544689518939819</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.327978073631803</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.6888515969184432</v>
+      </c>
+      <c r="N92" t="n">
+        <v>10.44905386473706</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>10143269650.60366</v>
+        <v>12788114066.46753</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1242130627893755</v>
+        <v>0.08111269844862497</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.106919910181791</v>
+        <v>0.0359683323168777</v>
       </c>
       <c r="I93" t="n">
-        <v>1.418430435606372</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>7.517552015528589</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7054830073889712</v>
+      </c>
+      <c r="N93" t="n">
+        <v>6.592108132250835</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>6662339378.190861</v>
+        <v>14606049850.05909</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1784963197601208</v>
+        <v>0.09182001251314192</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2934119675749197</v>
+        <v>0.06371360535772601</v>
       </c>
       <c r="I94" t="n">
-        <v>4.755419598965027</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>7.577355535464104</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7767353830732455</v>
+      </c>
+      <c r="N94" t="n">
+        <v>7.957352126000806</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>3975108234.723614</v>
+        <v>11776880046.38556</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3841667395771372</v>
+        <v>0.112098667456936</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0.1162605667083079</v>
       </c>
       <c r="I95" t="n">
-        <v>6.106629132591654</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>7.563938057307229</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7722965328039199</v>
+      </c>
+      <c r="N95" t="n">
+        <v>7.881992598771168</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>8173869263.408523</v>
+        <v>6045372971.27024</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1906731071632147</v>
+        <v>0.2504406969090412</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.3352457532017762</v>
+        <v>0.4747386459955897</v>
       </c>
       <c r="I96" t="n">
-        <v>6.232323042696456</v>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2259963492218017</v>
+      </c>
+      <c r="L96" t="n">
+        <v>7.322178472643226</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8112839781689269</v>
+      </c>
+      <c r="N96" t="n">
+        <v>8.903501090735311</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>10311670646.06457</v>
+        <v>6679821443.252048</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1521591082429316</v>
+        <v>0.2274381453017343</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2029295419443859</v>
+        <v>0.4151334012875906</v>
       </c>
       <c r="I97" t="n">
-        <v>6.27422101273139</v>
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.9513920376559883</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.2847632102990099</v>
+      </c>
+      <c r="L97" t="n">
+        <v>4.38174586947498</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.953000573750583</v>
+      </c>
+      <c r="N97" t="n">
+        <v>14.67826560553668</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>4817811644.750037</v>
+        <v>9673063182.574333</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2218250107732155</v>
+        <v>0.1145450979784795</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4422692245287164</v>
+        <v>0.1225998673383911</v>
       </c>
       <c r="I98" t="n">
-        <v>0.8277089208179378</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>7.22322769306189</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7235634659437694</v>
+      </c>
+      <c r="N98" t="n">
+        <v>7.248041625813498</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>6177144074.146083</v>
+        <v>11352430785.65512</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2260162387734172</v>
+        <v>0.09621601317139997</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.456668337190334</v>
+        <v>0.07510471967605069</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9174676917493343</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>7.290333836025598</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7196366170526206</v>
+      </c>
+      <c r="N99" t="n">
+        <v>7.102398505026814</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>9731497110.988749</v>
+        <v>6559556874.768386</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1197789545334992</v>
+        <v>0.2004607636009604</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.09168637377501471</v>
+        <v>0.3452283983423983</v>
       </c>
       <c r="I100" t="n">
-        <v>4.661149166386426</v>
+        <v>6</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.976587116571106</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2240346998099836</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.121038920517005</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.7888485557550715</v>
+      </c>
+      <c r="N100" t="n">
+        <v>12.65593219458442</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>10703239976.79245</v>
+        <v>4675452196.251898</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1588289259781179</v>
+        <v>0.3383868540605139</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.2258439376768017</v>
+        <v>0.7026286778334709</v>
       </c>
       <c r="I101" t="n">
-        <v>6.797945638168067</v>
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.98557169932396</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.413353583507651</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.961444645218363</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.9522245573755314</v>
+      </c>
+      <c r="N101" t="n">
+        <v>15.08304650229226</v>
       </c>
     </row>
   </sheetData>
